--- a/test-document/TDD Test Cases and Results.xlsx
+++ b/test-document/TDD Test Cases and Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>select #progress1 from dropdown list and click on any four increase/ decrease button</t>
   </si>
@@ -27,9 +27,6 @@
     <t>select #progress3 from dropdown list and click on any four increase/ decrease button</t>
   </si>
   <si>
-    <t>Select any #progress bar and try to increase more than 100%</t>
-  </si>
-  <si>
     <t>Select any #progress bar and try to decrease less than 0%</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>We are able to increase and decrease the sizeof progress bar two only</t>
   </si>
   <si>
-    <t>We are able to increase and decrease the sizeof progress bar three only</t>
-  </si>
-  <si>
     <t>Ecpected Result</t>
   </si>
   <si>
@@ -105,55 +99,28 @@
     <t>Animate all #Progress bar on on tapping + and - button it should work smoothly</t>
   </si>
   <si>
-    <t>Progress Bar is animated properly and on tapping + and -  button transition is smooth</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Dropdown is not available</t>
-  </si>
-  <si>
-    <t>We are not able to increase and decrease the sizeof progress bar one only</t>
-  </si>
-  <si>
-    <t>We are not able to increase and decrease the sizeof progress bar two only</t>
-  </si>
-  <si>
     <t>The colour of selected progress bar remains blue for more than 0% and less than 1000%</t>
   </si>
   <si>
-    <t>We are not able to increase and decrease the sizeof progress bar three only</t>
-  </si>
-  <si>
-    <t>The colour of selected progress bar is white as not able to increase or decerease its size</t>
-  </si>
-  <si>
-    <t>Selected progressbar percentage is not increased.</t>
-  </si>
-  <si>
-    <t>Selected progressbar percentage is not decreased</t>
-  </si>
-  <si>
     <t>The selected progress bar doesn’t goes beyond 1000%</t>
   </si>
   <si>
-    <t>The selected progress bar doesn’t goes above 0</t>
-  </si>
-  <si>
     <t>The selected progress bar colour turns red after reaching 1000%</t>
   </si>
   <si>
-    <t>The selected progress bar colour is changed</t>
-  </si>
-  <si>
-    <t>The selected progress bar values are not changed</t>
-  </si>
-  <si>
-    <t>The selected progress bar is not changed</t>
-  </si>
-  <si>
-    <t>Usage amount is  displayed in left</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>We are able to increase and decrease the size of progress bar three only</t>
+  </si>
+  <si>
+    <t>Select any #progress bar and try to increase more than 1000%</t>
+  </si>
+  <si>
+    <t>Select any #progress bar and try to increase upto 1000% and its color should change to red</t>
+  </si>
+  <si>
+    <t>Select any #progress bar and try to decrease less than 0% and its color should change to white</t>
   </si>
 </sst>
 </file>
@@ -177,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -222,7 +189,46 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -237,7 +243,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -246,49 +252,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -300,30 +267,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -333,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,36 +335,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,320 +667,320 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="45">
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="45">
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="45">
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="45">
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="60">
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="60">
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60">
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="45">
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="45">
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="45">
-      <c r="B11" s="13">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45">
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="45">
-      <c r="B12" s="13">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45">
+      <c r="B13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="45">
-      <c r="B13" s="13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="45">
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="45">
-      <c r="B15" s="13">
+        <v>28</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30">
+      <c r="B15" s="11">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30">
-      <c r="B16" s="13">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="45">
+      <c r="B16" s="11">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="45.75" thickBot="1">
+        <v>29</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="45">
       <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="30.75" thickBot="1">
-      <c r="B18" s="14">
+      <c r="C17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30">
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="60.75" thickBot="1">
+      <c r="B19" s="13">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="60.75" thickBot="1">
-      <c r="B19" s="14">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>30</v>
       </c>
     </row>
